--- a/data/pca/factorExposure/factorExposure_2017-12-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.007582760178108605</v>
+        <v>0.008363317796350238</v>
       </c>
       <c r="C2">
-        <v>0.002467156426110951</v>
+        <v>0.03318444601153691</v>
       </c>
       <c r="D2">
-        <v>0.02472304165132385</v>
+        <v>-0.02827756162033474</v>
       </c>
       <c r="E2">
-        <v>0.06124228672217981</v>
+        <v>0.02662323724311629</v>
       </c>
       <c r="F2">
-        <v>0.001637573266408033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03347214248999734</v>
+      </c>
+      <c r="G2">
+        <v>0.01112299682041655</v>
+      </c>
+      <c r="H2">
+        <v>0.006986504022133537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.06545142806591941</v>
+        <v>0.06091339261159718</v>
       </c>
       <c r="C3">
-        <v>0.001542314674694373</v>
+        <v>0.08629449812055619</v>
       </c>
       <c r="D3">
-        <v>-0.05924858620012257</v>
+        <v>-0.01301841819905415</v>
       </c>
       <c r="E3">
-        <v>0.248678779334076</v>
+        <v>0.07371371812305294</v>
       </c>
       <c r="F3">
-        <v>0.1118811097914697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.08652265932125676</v>
+      </c>
+      <c r="G3">
+        <v>0.06595801752359276</v>
+      </c>
+      <c r="H3">
+        <v>-0.005750258788314211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03616586426817952</v>
+        <v>0.05217224453469049</v>
       </c>
       <c r="C4">
-        <v>-0.01679658415614335</v>
+        <v>0.06050086883129983</v>
       </c>
       <c r="D4">
-        <v>0.03154275313861139</v>
+        <v>-0.02118098726338929</v>
       </c>
       <c r="E4">
-        <v>0.03485094813707559</v>
+        <v>-0.0009477429033299927</v>
       </c>
       <c r="F4">
-        <v>0.05431126316729153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.01878661637595047</v>
+      </c>
+      <c r="G4">
+        <v>0.03758977788093398</v>
+      </c>
+      <c r="H4">
+        <v>-0.02961660203470474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.06382870081175945</v>
+        <v>0.02773614776778317</v>
       </c>
       <c r="C6">
-        <v>-0.006288726746787324</v>
+        <v>0.05855849008705044</v>
       </c>
       <c r="D6">
-        <v>0.0448487476446545</v>
+        <v>-0.01617476640719999</v>
       </c>
       <c r="E6">
-        <v>0.02842643136810409</v>
+        <v>0.002598111211614738</v>
       </c>
       <c r="F6">
-        <v>0.0340924651329944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01697237616969835</v>
+      </c>
+      <c r="G6">
+        <v>0.01933174277420439</v>
+      </c>
+      <c r="H6">
+        <v>-0.004945341820551838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02604070236977633</v>
+        <v>0.01332607228642916</v>
       </c>
       <c r="C7">
-        <v>-0.06969160774607111</v>
+        <v>0.03760750864964062</v>
       </c>
       <c r="D7">
-        <v>-0.0006794688431685025</v>
+        <v>-0.01259747797552354</v>
       </c>
       <c r="E7">
-        <v>0.009280620719810426</v>
+        <v>-0.01731177610525523</v>
       </c>
       <c r="F7">
-        <v>0.003419090274263922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.009560867912341092</v>
+      </c>
+      <c r="G7">
+        <v>0.07391606356087911</v>
+      </c>
+      <c r="H7">
+        <v>0.005989815642292913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01433840826657505</v>
+        <v>-0.007005222955862987</v>
       </c>
       <c r="C8">
-        <v>-0.00908563155155017</v>
+        <v>0.01188590375840735</v>
       </c>
       <c r="D8">
-        <v>0.0198203362963085</v>
+        <v>-0.003648693378065707</v>
       </c>
       <c r="E8">
-        <v>0.03265690758204694</v>
+        <v>0.01177181829047938</v>
       </c>
       <c r="F8">
-        <v>0.02747305716959779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02473987058491369</v>
+      </c>
+      <c r="G8">
+        <v>0.02639150079694004</v>
+      </c>
+      <c r="H8">
+        <v>-0.02217485139222627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02912215778724968</v>
+        <v>0.02667665777305655</v>
       </c>
       <c r="C9">
-        <v>-0.0119622789059531</v>
+        <v>0.04183422647668154</v>
       </c>
       <c r="D9">
-        <v>0.02243975957798248</v>
+        <v>-0.0147850789410749</v>
       </c>
       <c r="E9">
-        <v>0.05331228212638099</v>
+        <v>-0.0003545502253789355</v>
       </c>
       <c r="F9">
-        <v>0.02969937567388258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01931733187728886</v>
+      </c>
+      <c r="G9">
+        <v>0.02740591517047702</v>
+      </c>
+      <c r="H9">
+        <v>0.002966183629765085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.066750730969228</v>
+        <v>0.09662754228296744</v>
       </c>
       <c r="C10">
-        <v>0.02070737315970755</v>
+        <v>-0.1771097819397251</v>
       </c>
       <c r="D10">
-        <v>-0.1683279612001723</v>
+        <v>0.0204505106944983</v>
       </c>
       <c r="E10">
-        <v>0.02083497450258432</v>
+        <v>0.0191542312110558</v>
       </c>
       <c r="F10">
-        <v>-0.01427504456735583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01306021314620699</v>
+      </c>
+      <c r="G10">
+        <v>0.0327942611510398</v>
+      </c>
+      <c r="H10">
+        <v>0.02595000112451557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02751972632396395</v>
+        <v>0.03360070866504207</v>
       </c>
       <c r="C11">
-        <v>0.001334535625269114</v>
+        <v>0.05563103492170307</v>
       </c>
       <c r="D11">
-        <v>0.04275234220334478</v>
+        <v>-0.0005309182557110348</v>
       </c>
       <c r="E11">
-        <v>0.01471282635522951</v>
+        <v>-0.007411679389050902</v>
       </c>
       <c r="F11">
-        <v>0.01778372426019741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02665002586362893</v>
+      </c>
+      <c r="G11">
+        <v>0.007682279088197152</v>
+      </c>
+      <c r="H11">
+        <v>-0.001999520853906075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03499835938202951</v>
+        <v>0.03299672180879332</v>
       </c>
       <c r="C12">
-        <v>-0.006601466281412401</v>
+        <v>0.0490313065689888</v>
       </c>
       <c r="D12">
-        <v>0.04187417119976783</v>
+        <v>-0.004932346361590356</v>
       </c>
       <c r="E12">
-        <v>-0.009456461618707298</v>
+        <v>-0.01314037098771103</v>
       </c>
       <c r="F12">
-        <v>-0.0001873355510869944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.007079345284993603</v>
+      </c>
+      <c r="G12">
+        <v>0.01387257824126138</v>
+      </c>
+      <c r="H12">
+        <v>-0.0004432827362428302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01827751766769881</v>
+        <v>0.009542153653377523</v>
       </c>
       <c r="C13">
-        <v>0.0007353147703535219</v>
+        <v>0.030309339037269</v>
       </c>
       <c r="D13">
-        <v>0.01666952712176596</v>
+        <v>-0.02408224841000676</v>
       </c>
       <c r="E13">
-        <v>0.04247215096242241</v>
+        <v>0.0175714734055983</v>
       </c>
       <c r="F13">
-        <v>0.03623247427603118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03289947434637579</v>
+      </c>
+      <c r="G13">
+        <v>0.02340579289156902</v>
+      </c>
+      <c r="H13">
+        <v>-0.01319522006768086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01480860421624072</v>
+        <v>0.007302278467492779</v>
       </c>
       <c r="C14">
-        <v>-0.01455587087570821</v>
+        <v>0.02655206722014427</v>
       </c>
       <c r="D14">
-        <v>0.008782921873666085</v>
+        <v>-0.008081247717706614</v>
       </c>
       <c r="E14">
-        <v>0.02118966468968143</v>
+        <v>-0.007279850554005108</v>
       </c>
       <c r="F14">
-        <v>0.02362986356744576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.0029165267464232</v>
+      </c>
+      <c r="G14">
+        <v>0.03300680192230712</v>
+      </c>
+      <c r="H14">
+        <v>-0.01588738164864981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02695312936846313</v>
+        <v>0.02957962186791567</v>
       </c>
       <c r="C16">
-        <v>-0.004328619061216407</v>
+        <v>0.04363219016467105</v>
       </c>
       <c r="D16">
-        <v>0.04053671521564065</v>
+        <v>-0.0002661820252917257</v>
       </c>
       <c r="E16">
-        <v>0.01671739476084435</v>
+        <v>-0.004399758798404316</v>
       </c>
       <c r="F16">
-        <v>0.02427794704263274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01449797070340958</v>
+      </c>
+      <c r="G16">
+        <v>0.01301442955896506</v>
+      </c>
+      <c r="H16">
+        <v>-0.004301464262661555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02591659524661731</v>
+        <v>0.02428022824521204</v>
       </c>
       <c r="C19">
-        <v>-0.002239960328252865</v>
+        <v>0.05498490766941324</v>
       </c>
       <c r="D19">
-        <v>0.03475584929535028</v>
+        <v>-0.01453158075187069</v>
       </c>
       <c r="E19">
-        <v>0.05377598893076017</v>
+        <v>0.03079389806628471</v>
       </c>
       <c r="F19">
-        <v>0.08106514613649465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.04390491514512228</v>
+      </c>
+      <c r="G19">
+        <v>0.03528507788738242</v>
+      </c>
+      <c r="H19">
+        <v>-0.03506706753711506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.00295975306556984</v>
+        <v>0.007290512939672561</v>
       </c>
       <c r="C20">
-        <v>-0.00294516208151362</v>
+        <v>0.03173474696500909</v>
       </c>
       <c r="D20">
-        <v>-0.0008844772640295883</v>
+        <v>-0.01258352040153077</v>
       </c>
       <c r="E20">
-        <v>0.03026552159026513</v>
+        <v>0.01699621659911325</v>
       </c>
       <c r="F20">
-        <v>0.01399363295996559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01229392638607305</v>
+      </c>
+      <c r="G20">
+        <v>0.02271390703512835</v>
+      </c>
+      <c r="H20">
+        <v>-0.01107156436842471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03839654389625802</v>
+        <v>0.01026568690957132</v>
       </c>
       <c r="C21">
-        <v>-0.0224373430787633</v>
+        <v>0.03567862905452277</v>
       </c>
       <c r="D21">
-        <v>0.013533745360114</v>
+        <v>-0.01568034828276407</v>
       </c>
       <c r="E21">
-        <v>0.02637328773572542</v>
+        <v>0.02230314878556378</v>
       </c>
       <c r="F21">
-        <v>0.03144844197856829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0227075219788792</v>
+      </c>
+      <c r="G21">
+        <v>0.04659614470189243</v>
+      </c>
+      <c r="H21">
+        <v>-0.01141282758163179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0252878354155977</v>
+        <v>0.02373229714985576</v>
       </c>
       <c r="C24">
-        <v>-0.002130754872863756</v>
+        <v>0.04645664986681029</v>
       </c>
       <c r="D24">
-        <v>0.0338301172055096</v>
+        <v>-0.005604063969313653</v>
       </c>
       <c r="E24">
-        <v>0.01351102844145316</v>
+        <v>-0.009599508350403572</v>
       </c>
       <c r="F24">
-        <v>0.01553422909194462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02168130565419061</v>
+      </c>
+      <c r="G24">
+        <v>0.01017575908825021</v>
+      </c>
+      <c r="H24">
+        <v>0.003835649763397534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03849418676393362</v>
+        <v>0.041101311362787</v>
       </c>
       <c r="C25">
-        <v>-0.000429060163597532</v>
+        <v>0.05499498568255813</v>
       </c>
       <c r="D25">
-        <v>0.03268296812622421</v>
+        <v>-0.009307933418744805</v>
       </c>
       <c r="E25">
-        <v>0.02732703897361032</v>
+        <v>-0.01687971104841214</v>
       </c>
       <c r="F25">
-        <v>0.02802980920567246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01855823088947204</v>
+      </c>
+      <c r="G25">
+        <v>0.01716238149614465</v>
+      </c>
+      <c r="H25">
+        <v>-0.007867210878585506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.000702633064609937</v>
+        <v>0.002132817141796151</v>
       </c>
       <c r="C26">
-        <v>-0.009487973500586781</v>
+        <v>0.006924946438184107</v>
       </c>
       <c r="D26">
-        <v>0.0005335319861129273</v>
+        <v>-0.0236794818683287</v>
       </c>
       <c r="E26">
-        <v>0.03148445861159915</v>
+        <v>0.003968259997051043</v>
       </c>
       <c r="F26">
-        <v>-0.003346476103685376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.007782462328599215</v>
+      </c>
+      <c r="G26">
+        <v>0.02146841733895672</v>
+      </c>
+      <c r="H26">
+        <v>-0.008425279980852865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1022036753715316</v>
+        <v>0.1240205277491009</v>
       </c>
       <c r="C28">
-        <v>0.02943573682334671</v>
+        <v>-0.2162931606638737</v>
       </c>
       <c r="D28">
-        <v>-0.2382117856618083</v>
+        <v>0.01209136138240202</v>
       </c>
       <c r="E28">
-        <v>0.009637873332112632</v>
+        <v>0.01189933416415961</v>
       </c>
       <c r="F28">
-        <v>-0.01411976917177154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01233124072885064</v>
+      </c>
+      <c r="G28">
+        <v>0.04813493520341214</v>
+      </c>
+      <c r="H28">
+        <v>0.014017040567821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01445220434686621</v>
+        <v>0.01151274980220939</v>
       </c>
       <c r="C29">
-        <v>-0.01084883507325636</v>
+        <v>0.02227372311696628</v>
       </c>
       <c r="D29">
-        <v>0.01100931370722198</v>
+        <v>-0.006994112904113385</v>
       </c>
       <c r="E29">
-        <v>0.02095860271474145</v>
+        <v>-0.005853199190962275</v>
       </c>
       <c r="F29">
-        <v>0.02724536704033259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.003411023060268259</v>
+      </c>
+      <c r="G29">
+        <v>0.02677360361213665</v>
+      </c>
+      <c r="H29">
+        <v>-0.02111932771859618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0457596219883729</v>
+        <v>0.03401503438245594</v>
       </c>
       <c r="C30">
-        <v>0.04816012625165023</v>
+        <v>0.07186800872478971</v>
       </c>
       <c r="D30">
-        <v>0.06918796331367331</v>
+        <v>-0.02639887425114558</v>
       </c>
       <c r="E30">
-        <v>0.06665574693613467</v>
+        <v>0.01712244141576402</v>
       </c>
       <c r="F30">
-        <v>0.03902448212843183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04673315273519341</v>
+      </c>
+      <c r="G30">
+        <v>-0.01258210377892598</v>
+      </c>
+      <c r="H30">
+        <v>-0.01773116716670117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04778086464031302</v>
+        <v>0.04063174258069602</v>
       </c>
       <c r="C31">
-        <v>-0.01322261919106244</v>
+        <v>0.02736442753883939</v>
       </c>
       <c r="D31">
-        <v>0.01641394594161544</v>
+        <v>-0.002022073467254628</v>
       </c>
       <c r="E31">
-        <v>0.0003258312510061361</v>
+        <v>-0.01619302025832961</v>
       </c>
       <c r="F31">
-        <v>0.01877742477670732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02768544202852819</v>
+      </c>
+      <c r="G31">
+        <v>0.02440256821465276</v>
+      </c>
+      <c r="H31">
+        <v>-0.006713248100777723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001399065067343769</v>
+        <v>0.003308700763470314</v>
       </c>
       <c r="C32">
-        <v>-0.02905261864138457</v>
+        <v>0.03296121622007896</v>
       </c>
       <c r="D32">
-        <v>0.02441921504825627</v>
+        <v>0.005337627920860051</v>
       </c>
       <c r="E32">
-        <v>0.01917618953981017</v>
+        <v>0.01334509056242548</v>
       </c>
       <c r="F32">
-        <v>0.0647564803881043</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.07668681404312358</v>
+      </c>
+      <c r="G32">
+        <v>0.05157251108041237</v>
+      </c>
+      <c r="H32">
+        <v>-0.05436641588541382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03381561909508215</v>
+        <v>0.02769444212667093</v>
       </c>
       <c r="C33">
-        <v>0.019402077324946</v>
+        <v>0.05112922769239836</v>
       </c>
       <c r="D33">
-        <v>0.03415509255311259</v>
+        <v>-0.01321751542289209</v>
       </c>
       <c r="E33">
-        <v>0.04439687238839393</v>
+        <v>0.01410328899371366</v>
       </c>
       <c r="F33">
-        <v>-0.004546146439818684</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0237715010959609</v>
+      </c>
+      <c r="G33">
+        <v>0.01229498628309377</v>
+      </c>
+      <c r="H33">
+        <v>0.01289979114679692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02857375559136003</v>
+        <v>0.04382864837090592</v>
       </c>
       <c r="C34">
-        <v>-0.0128812385719908</v>
+        <v>0.05650143403236398</v>
       </c>
       <c r="D34">
-        <v>0.04263176742803044</v>
+        <v>0.006896233682075452</v>
       </c>
       <c r="E34">
-        <v>0.01486559299081816</v>
+        <v>-0.0171842079818791</v>
       </c>
       <c r="F34">
-        <v>0.02703546602351584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02367652379889612</v>
+      </c>
+      <c r="G34">
+        <v>0.02159193067494014</v>
+      </c>
+      <c r="H34">
+        <v>-0.001832570960218375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.0148791040550945</v>
+        <v>0.010074919789068</v>
       </c>
       <c r="C36">
-        <v>-0.004717177876573914</v>
+        <v>0.004449636364453619</v>
       </c>
       <c r="D36">
-        <v>0.0001858731600091763</v>
+        <v>-0.01069401040258237</v>
       </c>
       <c r="E36">
-        <v>0.01700094911586383</v>
+        <v>-0.0009886337097247176</v>
       </c>
       <c r="F36">
-        <v>0.01099568889966412</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0002520885004407123</v>
+      </c>
+      <c r="G36">
+        <v>0.01420819194902252</v>
+      </c>
+      <c r="H36">
+        <v>-0.0001680815022201586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02324791352527448</v>
+        <v>0.02811014665176153</v>
       </c>
       <c r="C38">
-        <v>0.002559537119930421</v>
+        <v>0.01717197663004544</v>
       </c>
       <c r="D38">
-        <v>0.008911829828982715</v>
+        <v>0.00875754319775246</v>
       </c>
       <c r="E38">
-        <v>0.04202996837375572</v>
+        <v>-0.003327329421445969</v>
       </c>
       <c r="F38">
-        <v>0.004176997668190232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.008470182234374103</v>
+      </c>
+      <c r="G38">
+        <v>0.01838338545467002</v>
+      </c>
+      <c r="H38">
+        <v>0.001889057103068291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02200693849964464</v>
+        <v>0.02517039278598769</v>
       </c>
       <c r="C39">
-        <v>-0.01026841795484773</v>
+        <v>0.08367780219196883</v>
       </c>
       <c r="D39">
-        <v>0.06682023539843103</v>
+        <v>-0.01121479076929468</v>
       </c>
       <c r="E39">
-        <v>0.04805145607949636</v>
+        <v>0.004855718993379966</v>
       </c>
       <c r="F39">
-        <v>0.04025437593260477</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04312597893890026</v>
+      </c>
+      <c r="G39">
+        <v>0.01241857950372929</v>
+      </c>
+      <c r="H39">
+        <v>0.01024737391822532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03190104177111436</v>
+        <v>0.01780921096666147</v>
       </c>
       <c r="C40">
-        <v>0.0004701889301230671</v>
+        <v>0.03134106617526366</v>
       </c>
       <c r="D40">
-        <v>0.04304106881543919</v>
+        <v>-0.01279034339611371</v>
       </c>
       <c r="E40">
-        <v>0.03299794127713248</v>
+        <v>0.009378556023524222</v>
       </c>
       <c r="F40">
-        <v>0.003955452259771148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02494636752317237</v>
+      </c>
+      <c r="G40">
+        <v>0.01183181112555787</v>
+      </c>
+      <c r="H40">
+        <v>0.007138008697095358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.01039727475995772</v>
+        <v>0.01124559683424104</v>
       </c>
       <c r="C41">
-        <v>0.0009278049450362059</v>
+        <v>-0.004786234742501256</v>
       </c>
       <c r="D41">
-        <v>-0.01104043233164661</v>
+        <v>-0.002732269466720771</v>
       </c>
       <c r="E41">
-        <v>0.004576698377100985</v>
+        <v>-0.008024092474302611</v>
       </c>
       <c r="F41">
-        <v>0.004688473645821074</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0001120494470565552</v>
+      </c>
+      <c r="G41">
+        <v>0.008781176112561597</v>
+      </c>
+      <c r="H41">
+        <v>-0.003453223494233007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.1713786378834809</v>
+        <v>0.04291883265195554</v>
       </c>
       <c r="C42">
-        <v>0.1131834948561846</v>
+        <v>0.06691381229501095</v>
       </c>
       <c r="D42">
-        <v>0.1145197553201434</v>
+        <v>-0.1075727472988288</v>
       </c>
       <c r="E42">
-        <v>0.1665544041692271</v>
+        <v>0.07791490066222079</v>
       </c>
       <c r="F42">
-        <v>-0.8664449936601557</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1529636335166859</v>
+      </c>
+      <c r="G42">
+        <v>-0.284358507965017</v>
+      </c>
+      <c r="H42">
+        <v>0.9061817027927028</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0177636229416955</v>
+        <v>0.02684548346499312</v>
       </c>
       <c r="C43">
-        <v>0.003996315563657468</v>
+        <v>0.005993694599556303</v>
       </c>
       <c r="D43">
-        <v>-0.007929773502535703</v>
+        <v>-0.002639903384643959</v>
       </c>
       <c r="E43">
-        <v>0.009994224324146714</v>
+        <v>-0.004995524173588062</v>
       </c>
       <c r="F43">
-        <v>-0.001041585703336045</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003192521638935425</v>
+      </c>
+      <c r="G43">
+        <v>0.01054338733026575</v>
+      </c>
+      <c r="H43">
+        <v>-0.002081203756689699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.008887631294049686</v>
+        <v>0.01309691601015689</v>
       </c>
       <c r="C44">
-        <v>-0.009967653568950024</v>
+        <v>0.04967237721943139</v>
       </c>
       <c r="D44">
-        <v>0.01517759733379809</v>
+        <v>-0.006516330588830227</v>
       </c>
       <c r="E44">
-        <v>0.07233844733746962</v>
+        <v>0.01465027850234372</v>
       </c>
       <c r="F44">
-        <v>0.02867524338201157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02662673941169949</v>
+      </c>
+      <c r="G44">
+        <v>0.02922826849533396</v>
+      </c>
+      <c r="H44">
+        <v>0.01267035132548432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01084013578637415</v>
+        <v>-0.0003024593963986676</v>
       </c>
       <c r="C46">
-        <v>-0.00342387403020842</v>
+        <v>0.01639057544255837</v>
       </c>
       <c r="D46">
-        <v>0.02869516026405335</v>
+        <v>-0.01136552278428163</v>
       </c>
       <c r="E46">
-        <v>0.04288323335038618</v>
+        <v>-0.00707553485100458</v>
       </c>
       <c r="F46">
-        <v>0.0453602501792164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.006670908592620961</v>
+      </c>
+      <c r="G46">
+        <v>0.01851621827795939</v>
+      </c>
+      <c r="H46">
+        <v>-0.02301787273630769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07397220604420424</v>
+        <v>0.06759140250634967</v>
       </c>
       <c r="C47">
-        <v>0.001573540461258129</v>
+        <v>0.0611039726507132</v>
       </c>
       <c r="D47">
-        <v>0.02726177160651512</v>
+        <v>0.005729286473563515</v>
       </c>
       <c r="E47">
-        <v>-0.03379538638815612</v>
+        <v>-0.01878432212268298</v>
       </c>
       <c r="F47">
-        <v>-0.01541161340736678</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.05908754569777525</v>
+      </c>
+      <c r="G47">
+        <v>0.01460653096927925</v>
+      </c>
+      <c r="H47">
+        <v>-0.00662169771483006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02499024806312407</v>
+        <v>0.01449191675402201</v>
       </c>
       <c r="C48">
-        <v>-0.004282295248415595</v>
+        <v>0.01114411065288515</v>
       </c>
       <c r="D48">
-        <v>0.00444614831104527</v>
+        <v>-0.0006471493027782195</v>
       </c>
       <c r="E48">
-        <v>0.01775006353740643</v>
+        <v>-0.007329183641828915</v>
       </c>
       <c r="F48">
-        <v>0.01387892954928766</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01409946690458255</v>
+      </c>
+      <c r="G48">
+        <v>0.01693116400652104</v>
+      </c>
+      <c r="H48">
+        <v>-0.00414206700497068</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07487447327878335</v>
+        <v>0.07250722342038511</v>
       </c>
       <c r="C50">
-        <v>-0.02920605738399938</v>
+        <v>0.06599313587122983</v>
       </c>
       <c r="D50">
-        <v>0.04378666834870825</v>
+        <v>0.004592318585933676</v>
       </c>
       <c r="E50">
-        <v>-0.004473606018401868</v>
+        <v>-0.01905732328730142</v>
       </c>
       <c r="F50">
-        <v>-0.01580475997782253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.05618043314780315</v>
+      </c>
+      <c r="G50">
+        <v>0.03991825404411336</v>
+      </c>
+      <c r="H50">
+        <v>-0.008289232470896434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01412147723112391</v>
+        <v>0.0138553684996462</v>
       </c>
       <c r="C51">
-        <v>-0.006507947007736587</v>
+        <v>0.03006978614175788</v>
       </c>
       <c r="D51">
-        <v>-0.01840407619957053</v>
+        <v>-0.008674964338600516</v>
       </c>
       <c r="E51">
-        <v>0.05849092992493056</v>
+        <v>0.00376524123790356</v>
       </c>
       <c r="F51">
-        <v>0.04148848669313458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0358278449728109</v>
+      </c>
+      <c r="G51">
+        <v>0.03688193709039467</v>
+      </c>
+      <c r="H51">
+        <v>-0.002264311028934579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1003701069437738</v>
+        <v>0.09300418922177398</v>
       </c>
       <c r="C53">
-        <v>-0.01346545230981469</v>
+        <v>0.08192885598592689</v>
       </c>
       <c r="D53">
-        <v>0.05945467923392821</v>
+        <v>0.006478493168121838</v>
       </c>
       <c r="E53">
-        <v>-0.05494673025804032</v>
+        <v>-0.04229112134440521</v>
       </c>
       <c r="F53">
-        <v>-0.008208145550499068</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06906917198410514</v>
+      </c>
+      <c r="G53">
+        <v>0.01605795479909351</v>
+      </c>
+      <c r="H53">
+        <v>0.00535302035927975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02953024574660836</v>
+        <v>0.02785483296690019</v>
       </c>
       <c r="C54">
-        <v>-0.007237197369832886</v>
+        <v>0.004897573420013821</v>
       </c>
       <c r="D54">
-        <v>-0.001218397983753866</v>
+        <v>0.004841992988954804</v>
       </c>
       <c r="E54">
-        <v>0.005499880741376845</v>
+        <v>-0.0011180595821694</v>
       </c>
       <c r="F54">
-        <v>0.02721359307648551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.003526787132705066</v>
+      </c>
+      <c r="G54">
+        <v>0.02505139808293007</v>
+      </c>
+      <c r="H54">
+        <v>-0.0155267866073237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07268193410829649</v>
+        <v>0.0683074832369545</v>
       </c>
       <c r="C55">
-        <v>-0.007570519814027164</v>
+        <v>0.07270420708315116</v>
       </c>
       <c r="D55">
-        <v>0.07436524107958245</v>
+        <v>0.005398373469134796</v>
       </c>
       <c r="E55">
-        <v>-0.03460661171657915</v>
+        <v>-0.03134635337163408</v>
       </c>
       <c r="F55">
-        <v>-0.02723451813723285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.06315906535806057</v>
+      </c>
+      <c r="G55">
+        <v>0.005855214941242828</v>
+      </c>
+      <c r="H55">
+        <v>-0.003555825874954544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1390672543550288</v>
+        <v>0.1399703112907567</v>
       </c>
       <c r="C56">
-        <v>-0.007861422719859795</v>
+        <v>0.1047883976909644</v>
       </c>
       <c r="D56">
-        <v>0.08426573441780899</v>
+        <v>0.01578925314574382</v>
       </c>
       <c r="E56">
-        <v>-0.08804714314526359</v>
+        <v>-0.04554968596624248</v>
       </c>
       <c r="F56">
-        <v>-0.01704913720528929</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1067611349294314</v>
+      </c>
+      <c r="G56">
+        <v>-0.005408566342976964</v>
+      </c>
+      <c r="H56">
+        <v>-0.001273442133770247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03924654966585728</v>
+        <v>0.0157171522212668</v>
       </c>
       <c r="C57">
-        <v>0.006982834079174265</v>
+        <v>0.01296498224769631</v>
       </c>
       <c r="D57">
-        <v>0.01681486156207013</v>
+        <v>-0.0234255026562305</v>
       </c>
       <c r="E57">
-        <v>0.04019209722895038</v>
+        <v>0.03159674487044644</v>
       </c>
       <c r="F57">
-        <v>-0.004032072035444831</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01705649148934875</v>
+      </c>
+      <c r="G57">
+        <v>0.02247309630796518</v>
+      </c>
+      <c r="H57">
+        <v>0.003040710810519831</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1765524013335051</v>
+        <v>0.0645231178042501</v>
       </c>
       <c r="C58">
-        <v>0.1317835161311538</v>
+        <v>0.09376980125418205</v>
       </c>
       <c r="D58">
-        <v>0.1351505165441497</v>
+        <v>-0.02132920020318542</v>
       </c>
       <c r="E58">
-        <v>0.6137209303159694</v>
+        <v>0.9477039341402342</v>
       </c>
       <c r="F58">
-        <v>-0.08834538819997428</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2121133287481099</v>
+      </c>
+      <c r="G58">
+        <v>0.06907710522790342</v>
+      </c>
+      <c r="H58">
+        <v>-0.0979814068117015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.103373157142233</v>
+        <v>0.1610238126015463</v>
       </c>
       <c r="C59">
-        <v>0.04901821930203037</v>
+        <v>-0.2048407993515948</v>
       </c>
       <c r="D59">
-        <v>-0.1967234373382985</v>
+        <v>0.01952296217057977</v>
       </c>
       <c r="E59">
-        <v>0.04553177633980755</v>
+        <v>0.0177395093701478</v>
       </c>
       <c r="F59">
-        <v>0.0385697628332931</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0135073163951392</v>
+      </c>
+      <c r="G59">
+        <v>0.0215682644531553</v>
+      </c>
+      <c r="H59">
+        <v>-0.00488733518486233</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2151033053975845</v>
+        <v>0.2892707188926228</v>
       </c>
       <c r="C60">
-        <v>0.0520947134903539</v>
+        <v>0.09466186179374238</v>
       </c>
       <c r="D60">
-        <v>-0.01887299504393667</v>
+        <v>-0.003269901508835664</v>
       </c>
       <c r="E60">
-        <v>0.1617025891886098</v>
+        <v>0.01612539203890846</v>
       </c>
       <c r="F60">
-        <v>0.2057781127753839</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.389304200083025</v>
+      </c>
+      <c r="G60">
+        <v>-0.04415698772189637</v>
+      </c>
+      <c r="H60">
+        <v>-0.03670909103625164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03402595536336567</v>
+        <v>0.02834634363447755</v>
       </c>
       <c r="C61">
-        <v>-0.004439100021850807</v>
+        <v>0.06560567816735069</v>
       </c>
       <c r="D61">
-        <v>0.05470941971907969</v>
+        <v>-0.004432643672321198</v>
       </c>
       <c r="E61">
-        <v>0.03036526528186738</v>
+        <v>-0.0003039343086039826</v>
       </c>
       <c r="F61">
-        <v>0.03425683968479762</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02862883327858802</v>
+      </c>
+      <c r="G61">
+        <v>0.01533249283191736</v>
+      </c>
+      <c r="H61">
+        <v>-0.003401132333071827</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01598005508937779</v>
+        <v>0.01252358953308493</v>
       </c>
       <c r="C63">
-        <v>-0.007681260235721562</v>
+        <v>0.02929224940442544</v>
       </c>
       <c r="D63">
-        <v>0.02235463054585718</v>
+        <v>-0.007195763605059501</v>
       </c>
       <c r="E63">
-        <v>0.003860495546486134</v>
+        <v>-0.01657757053819868</v>
       </c>
       <c r="F63">
-        <v>-0.001188647840667247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.005331152546583146</v>
+      </c>
+      <c r="G63">
+        <v>0.02068639768151368</v>
+      </c>
+      <c r="H63">
+        <v>-0.008914427113611888</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05007674620229315</v>
+        <v>0.04559945924486213</v>
       </c>
       <c r="C64">
-        <v>-0.002591005315036769</v>
+        <v>0.03575686614112511</v>
       </c>
       <c r="D64">
-        <v>0.03505706987679789</v>
+        <v>-0.003431214354755569</v>
       </c>
       <c r="E64">
-        <v>0.01415357323587196</v>
+        <v>-0.01768719812455321</v>
       </c>
       <c r="F64">
-        <v>0.01602537146688164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01439681373339561</v>
+      </c>
+      <c r="G64">
+        <v>0.009157003200679269</v>
+      </c>
+      <c r="H64">
+        <v>0.02665639080725822</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.07067260997368001</v>
+        <v>0.07299672944967507</v>
       </c>
       <c r="C65">
-        <v>-0.006543760766064702</v>
+        <v>0.0757468725116847</v>
       </c>
       <c r="D65">
-        <v>0.04792423187534794</v>
+        <v>-0.01491083153223436</v>
       </c>
       <c r="E65">
-        <v>0.02350111722556929</v>
+        <v>-0.002736524759959981</v>
       </c>
       <c r="F65">
-        <v>0.03542502269007484</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04229132826841222</v>
+      </c>
+      <c r="G65">
+        <v>0.009923801044127833</v>
+      </c>
+      <c r="H65">
+        <v>-0.01233957495879219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04485297092890363</v>
+        <v>0.04564607296501484</v>
       </c>
       <c r="C66">
-        <v>0.007548571145058311</v>
+        <v>0.1212942833993482</v>
       </c>
       <c r="D66">
-        <v>0.08158592386346851</v>
+        <v>-0.01019232719773643</v>
       </c>
       <c r="E66">
-        <v>0.02792389763329252</v>
+        <v>0.00494496473833075</v>
       </c>
       <c r="F66">
-        <v>0.07052804486021924</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.05112768771033883</v>
+      </c>
+      <c r="G66">
+        <v>0.003956691999716702</v>
+      </c>
+      <c r="H66">
+        <v>-0.01548564615190176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04086685441082346</v>
+        <v>0.05464013869632498</v>
       </c>
       <c r="C67">
-        <v>0.006339668719063551</v>
+        <v>0.02075376947781147</v>
       </c>
       <c r="D67">
-        <v>0.006357344508531734</v>
+        <v>0.007981057439663406</v>
       </c>
       <c r="E67">
-        <v>0.02106479081370156</v>
+        <v>-0.009164211058842039</v>
       </c>
       <c r="F67">
-        <v>0.01168868555600321</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.005880158660369826</v>
+      </c>
+      <c r="G67">
+        <v>0.01784539457103224</v>
+      </c>
+      <c r="H67">
+        <v>-0.002722612087869222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08822001506971783</v>
+        <v>0.1380051493127489</v>
       </c>
       <c r="C68">
-        <v>0.04601858883428749</v>
+        <v>-0.2541477227278727</v>
       </c>
       <c r="D68">
-        <v>-0.2201627709166184</v>
+        <v>0.0009522054314302316</v>
       </c>
       <c r="E68">
-        <v>0.008632735268961678</v>
+        <v>0.01773369801415821</v>
       </c>
       <c r="F68">
-        <v>0.008639197302320547</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01864091997569595</v>
+      </c>
+      <c r="G68">
+        <v>0.01972521000736182</v>
+      </c>
+      <c r="H68">
+        <v>0.006409018330368822</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05502088761927306</v>
+        <v>0.07119297027752207</v>
       </c>
       <c r="C69">
-        <v>-0.0002537243955074764</v>
+        <v>0.0587259891415693</v>
       </c>
       <c r="D69">
-        <v>0.03757904860788842</v>
+        <v>0.0105458843972741</v>
       </c>
       <c r="E69">
-        <v>-0.02412653334266578</v>
+        <v>-0.03395170610170094</v>
       </c>
       <c r="F69">
-        <v>0.007699718056262497</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.03426785954995912</v>
+      </c>
+      <c r="G69">
+        <v>0.0107220542610793</v>
+      </c>
+      <c r="H69">
+        <v>-0.01661358645754237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08029092757652803</v>
+        <v>0.1357658345082836</v>
       </c>
       <c r="C71">
-        <v>0.03208517786480886</v>
+        <v>-0.2139881115185746</v>
       </c>
       <c r="D71">
-        <v>-0.2208314086888803</v>
+        <v>0.009657829649951408</v>
       </c>
       <c r="E71">
-        <v>0.01924962926670705</v>
+        <v>0.02359871203752447</v>
       </c>
       <c r="F71">
-        <v>-0.04175994509297328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02301645119866882</v>
+      </c>
+      <c r="G71">
+        <v>0.0320827591249094</v>
+      </c>
+      <c r="H71">
+        <v>0.02322086835745145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.130936978475251</v>
+        <v>0.07771601108973422</v>
       </c>
       <c r="C72">
-        <v>0.008845952179675043</v>
+        <v>0.08628203678586546</v>
       </c>
       <c r="D72">
-        <v>0.121745336923497</v>
+        <v>0.01022578215946045</v>
       </c>
       <c r="E72">
-        <v>0.1249910359340515</v>
+        <v>-0.01835898245900653</v>
       </c>
       <c r="F72">
-        <v>0.1857214080544251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04137422388122887</v>
+      </c>
+      <c r="G72">
+        <v>-0.003630389715645264</v>
+      </c>
+      <c r="H72">
+        <v>-0.01978439711173231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2590198226659975</v>
+        <v>0.3919158600684259</v>
       </c>
       <c r="C73">
-        <v>0.1113916720350515</v>
+        <v>0.1218251676126134</v>
       </c>
       <c r="D73">
-        <v>0.015428920954515</v>
+        <v>-0.007446423642260678</v>
       </c>
       <c r="E73">
-        <v>0.2316096467900663</v>
+        <v>0.0672902518608995</v>
       </c>
       <c r="F73">
-        <v>0.1476000809715562</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.5323328372105953</v>
+      </c>
+      <c r="G73">
+        <v>-0.09375282949169844</v>
+      </c>
+      <c r="H73">
+        <v>0.0667006500088186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1265363144033889</v>
+        <v>0.1094844339455183</v>
       </c>
       <c r="C74">
-        <v>0.000583040859252646</v>
+        <v>0.1206493297729043</v>
       </c>
       <c r="D74">
-        <v>0.08555758325310882</v>
+        <v>0.01126937090575291</v>
       </c>
       <c r="E74">
-        <v>-0.07480621987788759</v>
+        <v>-0.04237906760608944</v>
       </c>
       <c r="F74">
-        <v>-0.001571813537366977</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07319159664445692</v>
+      </c>
+      <c r="G74">
+        <v>0.008449922337169753</v>
+      </c>
+      <c r="H74">
+        <v>-0.001864442924991503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2664130242783659</v>
+        <v>0.2485831309790058</v>
       </c>
       <c r="C75">
-        <v>0.01282603205388197</v>
+        <v>0.159371122489785</v>
       </c>
       <c r="D75">
-        <v>0.1310702644664221</v>
+        <v>0.03212759773018818</v>
       </c>
       <c r="E75">
-        <v>-0.1514349054229394</v>
+        <v>-0.06273478926933539</v>
       </c>
       <c r="F75">
-        <v>0.03303543251893013</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2181816899226385</v>
+      </c>
+      <c r="G75">
+        <v>-0.02788739736174586</v>
+      </c>
+      <c r="H75">
+        <v>-0.01406814669764292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2483564292408881</v>
+        <v>0.1455603452411652</v>
       </c>
       <c r="C76">
-        <v>-0.01036210473640717</v>
+        <v>0.1351651386515308</v>
       </c>
       <c r="D76">
-        <v>0.136418741712607</v>
+        <v>0.0245386133187538</v>
       </c>
       <c r="E76">
-        <v>-0.2167295539004385</v>
+        <v>-0.07235859382448852</v>
       </c>
       <c r="F76">
-        <v>0.01001470219227779</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1479635621305904</v>
+      </c>
+      <c r="G76">
+        <v>-0.0005790564030014271</v>
+      </c>
+      <c r="H76">
+        <v>-0.01292264596402046</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.04884876898478699</v>
+        <v>0.0515225896190958</v>
       </c>
       <c r="C77">
-        <v>0.001754523193476392</v>
+        <v>0.05992903039129591</v>
       </c>
       <c r="D77">
-        <v>0.04492496976356215</v>
+        <v>-0.0106014424655332</v>
       </c>
       <c r="E77">
-        <v>0.06296140800843716</v>
+        <v>0.02673468530260109</v>
       </c>
       <c r="F77">
-        <v>-0.01254574697371925</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.009227133557856336</v>
+      </c>
+      <c r="G77">
+        <v>0.03208269324361136</v>
+      </c>
+      <c r="H77">
+        <v>-0.008220795833430373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03137701479545399</v>
+        <v>0.04046265920469856</v>
       </c>
       <c r="C78">
-        <v>-0.008617526495758795</v>
+        <v>0.05428858900753761</v>
       </c>
       <c r="D78">
-        <v>0.04674474272779176</v>
+        <v>-0.004385950651978413</v>
       </c>
       <c r="E78">
-        <v>0.06533996203728575</v>
+        <v>0.01527900351768421</v>
       </c>
       <c r="F78">
-        <v>0.06848781057761366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04674008321153192</v>
+      </c>
+      <c r="G78">
+        <v>0.02530462598336341</v>
+      </c>
+      <c r="H78">
+        <v>-0.01446095528963645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2137370915535826</v>
+        <v>0.06392831580701938</v>
       </c>
       <c r="C80">
-        <v>-0.9406668929615348</v>
+        <v>0.08272468478465275</v>
       </c>
       <c r="D80">
-        <v>-0.1392169427392865</v>
+        <v>-0.011992065046164</v>
       </c>
       <c r="E80">
-        <v>0.1230081595948935</v>
+        <v>-0.07075514362335249</v>
       </c>
       <c r="F80">
-        <v>-0.08089212641235768</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02313878791157222</v>
+      </c>
+      <c r="G80">
+        <v>0.9120476930406796</v>
+      </c>
+      <c r="H80">
+        <v>0.2768349282471089</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2027506255728351</v>
+        <v>0.1471510711392303</v>
       </c>
       <c r="C81">
-        <v>-0.001032180951005348</v>
+        <v>0.1016000283008414</v>
       </c>
       <c r="D81">
-        <v>0.09668536172297436</v>
+        <v>0.01854092606435319</v>
       </c>
       <c r="E81">
-        <v>-0.1168400282354733</v>
+        <v>-0.04394410389894869</v>
       </c>
       <c r="F81">
-        <v>0.03111750639686324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1401465224432626</v>
+      </c>
+      <c r="G81">
+        <v>0.006971467929517708</v>
+      </c>
+      <c r="H81">
+        <v>-0.01195660628294461</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03391477397997542</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.02803799157882812</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002050509655919994</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.02063973077101181</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.001317474686640187</v>
+      </c>
+      <c r="G82">
+        <v>0.001770526417462732</v>
+      </c>
+      <c r="H82">
+        <v>-0.01635787406574474</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03841724768227446</v>
+        <v>0.02620486593266649</v>
       </c>
       <c r="C83">
-        <v>0.006953390467454029</v>
+        <v>0.0181812355456854</v>
       </c>
       <c r="D83">
-        <v>0.003373451419652576</v>
+        <v>-0.004674604823269563</v>
       </c>
       <c r="E83">
-        <v>0.03860635602653487</v>
+        <v>0.02125137580987591</v>
       </c>
       <c r="F83">
-        <v>0.01497786463459857</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02384469374764874</v>
+      </c>
+      <c r="G83">
+        <v>0.02677675348460296</v>
+      </c>
+      <c r="H83">
+        <v>-0.007910598105969373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2468985424224061</v>
+        <v>0.2433904892196279</v>
       </c>
       <c r="C85">
-        <v>0.01908865184809184</v>
+        <v>0.1664670084539278</v>
       </c>
       <c r="D85">
-        <v>0.1509995286853483</v>
+        <v>0.02263664050346193</v>
       </c>
       <c r="E85">
-        <v>-0.1842484232463832</v>
+        <v>-0.1034747511923077</v>
       </c>
       <c r="F85">
-        <v>0.01380184893999326</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2103874769279999</v>
+      </c>
+      <c r="G85">
+        <v>-0.06648921249944278</v>
+      </c>
+      <c r="H85">
+        <v>-0.01405017771534417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01326297789159298</v>
+        <v>0.007001452584421059</v>
       </c>
       <c r="C86">
-        <v>-0.008189499926960551</v>
+        <v>0.02794000334097513</v>
       </c>
       <c r="D86">
-        <v>0.02859150117474928</v>
+        <v>-0.00958629751183865</v>
       </c>
       <c r="E86">
-        <v>0.06150438109241652</v>
+        <v>0.01352211856870311</v>
       </c>
       <c r="F86">
-        <v>0.03421211332196292</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02521762968152855</v>
+      </c>
+      <c r="G86">
+        <v>0.04770039355628033</v>
+      </c>
+      <c r="H86">
+        <v>0.02415800117324722</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02583745908970116</v>
+        <v>0.01528355119842369</v>
       </c>
       <c r="C87">
-        <v>-0.006342800707976253</v>
+        <v>0.0296515395682165</v>
       </c>
       <c r="D87">
-        <v>0.02658967217258643</v>
+        <v>-0.01092819265897953</v>
       </c>
       <c r="E87">
-        <v>0.103082742576566</v>
+        <v>0.07391432907894908</v>
       </c>
       <c r="F87">
-        <v>0.05345567851733598</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.06511250001141254</v>
+      </c>
+      <c r="G87">
+        <v>0.03913044495959645</v>
+      </c>
+      <c r="H87">
+        <v>0.004425380940859246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04901970958868992</v>
+        <v>0.08140324293178915</v>
       </c>
       <c r="C88">
-        <v>0.009589501944897598</v>
+        <v>0.04935638834732396</v>
       </c>
       <c r="D88">
-        <v>0.002442282234066886</v>
+        <v>-0.01952789729645458</v>
       </c>
       <c r="E88">
-        <v>0.0001149493801420625</v>
+        <v>-0.01704201616717995</v>
       </c>
       <c r="F88">
-        <v>0.01320681352090889</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.0105899311525823</v>
+      </c>
+      <c r="G88">
+        <v>0.01982467286273852</v>
+      </c>
+      <c r="H88">
+        <v>-0.02452226227379838</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1641849896563089</v>
+        <v>0.2369212744291299</v>
       </c>
       <c r="C89">
-        <v>0.09293724961913485</v>
+        <v>-0.3700269411377112</v>
       </c>
       <c r="D89">
-        <v>-0.3828603531497757</v>
+        <v>0.01429355713296565</v>
       </c>
       <c r="E89">
-        <v>-0.01132191457984229</v>
+        <v>-0.001256937416191287</v>
       </c>
       <c r="F89">
-        <v>0.07054712301537618</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02576223146524447</v>
+      </c>
+      <c r="G89">
+        <v>0.02400774079237522</v>
+      </c>
+      <c r="H89">
+        <v>-0.0148754112952722</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09431832528561619</v>
+        <v>0.1962402347536473</v>
       </c>
       <c r="C90">
-        <v>0.08191396712142937</v>
+        <v>-0.3289601315442269</v>
       </c>
       <c r="D90">
-        <v>-0.3283781798106477</v>
+        <v>0.01519332024865584</v>
       </c>
       <c r="E90">
-        <v>-0.05560459377564237</v>
+        <v>0.007495097217692513</v>
       </c>
       <c r="F90">
-        <v>-0.01927765096865796</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04493065939169554</v>
+      </c>
+      <c r="G90">
+        <v>0.003782099824661585</v>
+      </c>
+      <c r="H90">
+        <v>-0.0006220852199608066</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2765305421149999</v>
+        <v>0.2073216038140291</v>
       </c>
       <c r="C91">
-        <v>0.01549317962828137</v>
+        <v>0.138859208599485</v>
       </c>
       <c r="D91">
-        <v>0.1655657771863359</v>
+        <v>0.027776751007393</v>
       </c>
       <c r="E91">
-        <v>-0.2298321016243841</v>
+        <v>-0.08428706165189338</v>
       </c>
       <c r="F91">
-        <v>-0.04969595345353851</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1970842259486879</v>
+      </c>
+      <c r="G91">
+        <v>-0.02269553291150419</v>
+      </c>
+      <c r="H91">
+        <v>-0.007186928015708641</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2546225760128215</v>
+        <v>0.2340018284057461</v>
       </c>
       <c r="C92">
-        <v>0.09342028503660388</v>
+        <v>-0.2562635963398581</v>
       </c>
       <c r="D92">
-        <v>-0.3329362998313762</v>
+        <v>0.05883652420675468</v>
       </c>
       <c r="E92">
-        <v>-0.14765788294416</v>
+        <v>0.006027920519744461</v>
       </c>
       <c r="F92">
-        <v>-0.1000671993263258</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1433422320637388</v>
+      </c>
+      <c r="G92">
+        <v>0.04346901418423236</v>
+      </c>
+      <c r="H92">
+        <v>0.01138899729458774</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1475225836972968</v>
+        <v>0.2241931773847057</v>
       </c>
       <c r="C93">
-        <v>0.1100618266665903</v>
+        <v>-0.3249594152679583</v>
       </c>
       <c r="D93">
-        <v>-0.379940499786004</v>
+        <v>0.02212787394559152</v>
       </c>
       <c r="E93">
-        <v>-0.02605385580413318</v>
+        <v>0.02014407516897053</v>
       </c>
       <c r="F93">
-        <v>-0.06942379576062617</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01721702014138687</v>
+      </c>
+      <c r="G93">
+        <v>-0.00671515818131333</v>
+      </c>
+      <c r="H93">
+        <v>0.03997944228503397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.31662879768996</v>
+        <v>0.2713527834722982</v>
       </c>
       <c r="C94">
-        <v>0.0483432934177015</v>
+        <v>0.1651092321706515</v>
       </c>
       <c r="D94">
-        <v>0.1342246796971975</v>
+        <v>0.01602364574118587</v>
       </c>
       <c r="E94">
-        <v>-0.2239948422909387</v>
+        <v>-0.1016204417759213</v>
       </c>
       <c r="F94">
-        <v>0.0754224398382677</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3557958582346788</v>
+      </c>
+      <c r="G94">
+        <v>-0.1099283230692774</v>
+      </c>
+      <c r="H94">
+        <v>-0.2375202803280065</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0719482647150179</v>
+        <v>0.07269879275873883</v>
       </c>
       <c r="C95">
-        <v>0.07396676011045612</v>
+        <v>0.09435826177977462</v>
       </c>
       <c r="D95">
-        <v>0.05007764727667861</v>
+        <v>0.007359511886169849</v>
       </c>
       <c r="E95">
-        <v>0.01159872984222551</v>
+        <v>0.07361290324558817</v>
       </c>
       <c r="F95">
-        <v>0.08235395003836342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1477659605729932</v>
+      </c>
+      <c r="G95">
+        <v>-0.05846040952635887</v>
+      </c>
+      <c r="H95">
+        <v>0.01053469639017853</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2158444176836147</v>
+        <v>0.2131849079303633</v>
       </c>
       <c r="C98">
-        <v>0.07315420524750399</v>
+        <v>0.05407714248836268</v>
       </c>
       <c r="D98">
-        <v>-0.02754506138681797</v>
+        <v>0.02127323581397531</v>
       </c>
       <c r="E98">
-        <v>0.2371166414813106</v>
+        <v>0.06740197492136141</v>
       </c>
       <c r="F98">
-        <v>0.1739769296440726</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.256283001459119</v>
+      </c>
+      <c r="G98">
+        <v>-0.0337400949481668</v>
+      </c>
+      <c r="H98">
+        <v>0.05423073670768514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.02854088557648977</v>
+        <v>0.01289644163134621</v>
       </c>
       <c r="C101">
-        <v>-0.001180665400433325</v>
+        <v>0.02389937235330702</v>
       </c>
       <c r="D101">
-        <v>0.02297148615950049</v>
+        <v>-0.008223913618028803</v>
       </c>
       <c r="E101">
-        <v>0.1268693260068843</v>
+        <v>0.03237217961516711</v>
       </c>
       <c r="F101">
-        <v>-0.01736743226604578</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02178835269587517</v>
+      </c>
+      <c r="G101">
+        <v>0.03298392257477591</v>
+      </c>
+      <c r="H101">
+        <v>-0.02166649819723676</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1365853426996465</v>
+        <v>0.1174910097128501</v>
       </c>
       <c r="C102">
-        <v>0.005531243229722136</v>
+        <v>0.08057314470657921</v>
       </c>
       <c r="D102">
-        <v>0.06586533873052069</v>
+        <v>0.001407530379889268</v>
       </c>
       <c r="E102">
-        <v>-0.1025340151661874</v>
+        <v>-0.04660612721027035</v>
       </c>
       <c r="F102">
-        <v>-0.0326499936585033</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06279240956540381</v>
+      </c>
+      <c r="G102">
+        <v>-0.01963808269814027</v>
+      </c>
+      <c r="H102">
+        <v>0.009522301662758465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.03402301867732786</v>
+        <v>0.00616815500624417</v>
       </c>
       <c r="C103">
-        <v>-0.0153437562723814</v>
+        <v>0.006534558332260112</v>
       </c>
       <c r="D103">
-        <v>0.02063167952230458</v>
+        <v>-0.0003719167297047661</v>
       </c>
       <c r="E103">
-        <v>-0.01227041767070678</v>
+        <v>-0.001721851999900423</v>
       </c>
       <c r="F103">
-        <v>0.0006665760415932768</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01172244585599633</v>
+      </c>
+      <c r="G103">
+        <v>0.01374149067201575</v>
+      </c>
+      <c r="H103">
+        <v>0.008785433443306272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.05418200186171478</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.04793414704357308</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.984861421859246</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.0438954054496292</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.03210433660941273</v>
+      </c>
+      <c r="G104">
+        <v>0.008188183248556809</v>
+      </c>
+      <c r="H104">
+        <v>-0.1000329579063497</v>
       </c>
     </row>
   </sheetData>
